--- a/results/R_gene_lists/d2_LEC_subtype_cluster_markers.xlsx
+++ b/results/R_gene_lists/d2_LEC_subtype_cluster_markers.xlsx
@@ -6,14 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="2-mLEC" r:id="rId3" sheetId="1"/>
-    <sheet name="3-mLEC" r:id="rId4" sheetId="2"/>
+    <sheet name="3-mLEC" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
   <si>
     <t>p_val</t>
   </si>
@@ -48,133 +47,121 @@
     <t>3</t>
   </si>
   <si>
-    <t>2-mLEC</t>
-  </si>
-  <si>
-    <t>Cald1</t>
-  </si>
-  <si>
-    <t>Podxl</t>
-  </si>
-  <si>
-    <t>Rpl10a</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>3-mLEC</t>
+  </si>
+  <si>
+    <t>Lyve1</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>Itga2b</t>
+  </si>
+  <si>
+    <t>Cpe</t>
+  </si>
+  <si>
+    <t>Ctsd</t>
+  </si>
+  <si>
+    <t>H2-K1</t>
+  </si>
+  <si>
+    <t>Lgmn</t>
+  </si>
+  <si>
+    <t>Npc2</t>
+  </si>
+  <si>
+    <t>Grn</t>
+  </si>
+  <si>
+    <t>Ctss</t>
+  </si>
+  <si>
+    <t>Vcam1</t>
+  </si>
+  <si>
+    <t>Ctsl</t>
+  </si>
+  <si>
+    <t>Ifi204</t>
+  </si>
+  <si>
+    <t>Flrt3</t>
+  </si>
+  <si>
+    <t>Acod1</t>
+  </si>
+  <si>
+    <t>Fth1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>Cd55</t>
+  </si>
+  <si>
+    <t>Psap</t>
+  </si>
+  <si>
+    <t>Tspan7</t>
   </si>
   <si>
     <t>mLEC</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>3-mLEC</t>
-  </si>
-  <si>
-    <t>Lyve1</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>Itga2b</t>
-  </si>
-  <si>
-    <t>Cpe</t>
-  </si>
-  <si>
-    <t>Ctsd</t>
-  </si>
-  <si>
-    <t>H2-K1</t>
-  </si>
-  <si>
-    <t>Lgmn</t>
-  </si>
-  <si>
-    <t>Npc2</t>
-  </si>
-  <si>
-    <t>Grn</t>
-  </si>
-  <si>
-    <t>Ctss</t>
-  </si>
-  <si>
-    <t>Vcam1</t>
-  </si>
-  <si>
-    <t>Ctsl</t>
-  </si>
-  <si>
-    <t>Ifi204</t>
-  </si>
-  <si>
-    <t>Flrt3</t>
-  </si>
-  <si>
-    <t>Acod1</t>
-  </si>
-  <si>
-    <t>Fth1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>Cd55</t>
-  </si>
-  <si>
-    <t>Psap</t>
-  </si>
-  <si>
-    <t>Tspan7</t>
   </si>
 </sst>
 </file>
@@ -257,28 +244,28 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>1.5601213522538561E-7</v>
+        <v>7.382224856889083E-11</v>
       </c>
       <c r="C2" t="n">
-        <v>1.4724754329582288</v>
+        <v>2.2486381117963425</v>
       </c>
       <c r="D2" t="n">
-        <v>0.854</v>
+        <v>1.0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.16</v>
+        <v>0.268</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00487943554130916</v>
+        <v>2.3088646462406297E-6</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -286,28 +273,28 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>4.4571218562451376E-7</v>
+        <v>1.6460204229586762E-10</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0829196051257857</v>
+        <v>2.1196198511185225</v>
       </c>
       <c r="D3" t="n">
-        <v>0.78</v>
+        <v>0.96</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08</v>
+        <v>0.39</v>
       </c>
       <c r="F3" t="n">
-        <v>0.013940094317592293</v>
+        <v>5.1480934748455554E-6</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -315,133 +302,6 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>1.4955015229960158E-6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.7101270675837053</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.04677330563322339</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1"/>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="n">
-        <v>7.382224856889083E-11</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2.2486381117963425</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.268</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2.3088646462406297E-6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.6460204229586762E-10</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2.1196198511185225</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5.1480934748455554E-6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="n">
         <v>1.6474048322670032E-10</v>
       </c>
       <c r="C4" t="n">
@@ -457,18 +317,18 @@
         <v>5.1524233533982795E-6</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B5" t="n">
         <v>1.93118929081798E-9</v>
@@ -486,18 +346,18 @@
         <v>6.0399876259623146E-5</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B6" t="n">
         <v>2.3441693942365637E-9</v>
@@ -515,18 +375,18 @@
         <v>7.331624197414276E-5</v>
       </c>
       <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
         <v>33</v>
       </c>
-      <c r="H6" t="s">
-        <v>38</v>
-      </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B7" t="n">
         <v>1.0420994753616503E-8</v>
@@ -544,18 +404,18 @@
         <v>3.2592703191410975E-4</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B8" t="n">
         <v>1.1010702272956453E-8</v>
@@ -573,18 +433,18 @@
         <v>3.4437072428898603E-4</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B9" t="n">
         <v>1.8531793362569277E-8</v>
@@ -602,18 +462,18 @@
         <v>5.796003692077167E-4</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B10" t="n">
         <v>1.1412286826985615E-7</v>
@@ -631,18 +491,18 @@
         <v>0.003569306828008021</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B11" t="n">
         <v>1.1519142938108609E-7</v>
@@ -660,18 +520,18 @@
         <v>0.0036027271453228484</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B12" t="n">
         <v>1.8398648492345872E-7</v>
@@ -689,18 +549,18 @@
         <v>0.005754361302466095</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B13" t="n">
         <v>1.8398648492345872E-7</v>
@@ -718,18 +578,18 @@
         <v>0.005754361302466095</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I13" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B14" t="n">
         <v>2.784064063037866E-7</v>
@@ -747,18 +607,18 @@
         <v>0.008707438763557231</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I14" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B15" t="n">
         <v>4.705846756629624E-7</v>
@@ -776,18 +636,18 @@
         <v>0.014718006316034812</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I15" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B16" t="n">
         <v>5.422795581583523E-7</v>
@@ -805,18 +665,18 @@
         <v>0.016960335460960627</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I16" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B17" t="n">
         <v>7.157468474439326E-7</v>
@@ -834,18 +694,18 @@
         <v>0.022385698400656438</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H17" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I17" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n">
         <v>8.09410901423817E-7</v>
@@ -863,18 +723,18 @@
         <v>0.0253151353529313</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H18" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I18" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B19" t="n">
         <v>1.1163838060121432E-6</v>
@@ -892,18 +752,18 @@
         <v>0.034916019916835794</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H19" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B20" t="n">
         <v>1.4955015229960158E-6</v>
@@ -921,18 +781,18 @@
         <v>0.04677330563322339</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H20" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B21" t="n">
         <v>1.5207944118193416E-6</v>
@@ -950,13 +810,13 @@
         <v>0.04756436602406173</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H21" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
